--- a/teaching/traditional_assets/database/data/vietnam/vietnam_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_reinsurance.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0443</v>
+        <v>0.0639</v>
       </c>
       <c r="E2">
-        <v>-0.0243</v>
+        <v>0.0428</v>
       </c>
       <c r="G2">
-        <v>0.2157164869029276</v>
+        <v>0.1893732970027248</v>
       </c>
       <c r="H2">
-        <v>0.2157164869029276</v>
+        <v>0.1893732970027248</v>
       </c>
       <c r="I2">
-        <v>0.1987673343605547</v>
+        <v>0.215258855585831</v>
       </c>
       <c r="J2">
-        <v>0.1647501059968356</v>
+        <v>0.1778785752745191</v>
       </c>
       <c r="K2">
-        <v>12.2</v>
+        <v>13.8</v>
       </c>
       <c r="L2">
-        <v>0.1879815100154083</v>
+        <v>0.1880108991825613</v>
       </c>
       <c r="M2">
-        <v>6.69</v>
+        <v>11.4</v>
       </c>
       <c r="N2">
-        <v>0.05395161290322581</v>
+        <v>0.1011535048802129</v>
       </c>
       <c r="O2">
-        <v>0.548360655737705</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="P2">
-        <v>6.69</v>
+        <v>11.4</v>
       </c>
       <c r="Q2">
-        <v>0.05395161290322581</v>
+        <v>0.1011535048802129</v>
       </c>
       <c r="R2">
-        <v>0.548360655737705</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>6.28</v>
+        <v>7.46</v>
       </c>
       <c r="V2">
-        <v>0.05064516129032258</v>
+        <v>0.06619343389529725</v>
       </c>
       <c r="W2">
-        <v>0.09902597402597402</v>
+        <v>0.1073094867807154</v>
       </c>
       <c r="X2">
-        <v>0.09969249096765777</v>
+        <v>0.112048664881477</v>
       </c>
       <c r="Y2">
-        <v>-0.0006665169416837508</v>
+        <v>-0.004739178100761618</v>
       </c>
       <c r="Z2">
-        <v>0.5383211678832117</v>
+        <v>0.6000654022236757</v>
       </c>
       <c r="AA2">
-        <v>0.08868846946909947</v>
+        <v>0.1067387788190787</v>
       </c>
       <c r="AB2">
-        <v>0.09969249096765777</v>
+        <v>0.112048664881477</v>
       </c>
       <c r="AC2">
-        <v>-0.01100402149855829</v>
+        <v>-0.005309886062398364</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-6.28</v>
+        <v>-7.46</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,28 +684,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.05334692490655794</v>
+        <v>-0.07088559483086278</v>
       </c>
       <c r="AK2">
-        <v>-0.0507187853335487</v>
+        <v>-0.05970866015687529</v>
       </c>
       <c r="AL2">
-        <v>0.075</v>
+        <v>1.09</v>
       </c>
       <c r="AM2">
-        <v>0.075</v>
+        <v>1.09</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>172</v>
+        <v>14.4954128440367</v>
       </c>
       <c r="AP2">
-        <v>-0.490625</v>
+        <v>-0.4691823899371069</v>
       </c>
       <c r="AQ2">
-        <v>172</v>
+        <v>14.4954128440367</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0443</v>
+        <v>0.0639</v>
       </c>
       <c r="E3">
-        <v>-0.0243</v>
+        <v>0.0428</v>
       </c>
       <c r="G3">
-        <v>0.2157164869029276</v>
+        <v>0.1893732970027248</v>
       </c>
       <c r="H3">
-        <v>0.2157164869029276</v>
+        <v>0.1893732970027248</v>
       </c>
       <c r="I3">
-        <v>0.1987673343605547</v>
+        <v>0.215258855585831</v>
       </c>
       <c r="J3">
-        <v>0.1647501059968356</v>
+        <v>0.1778785752745191</v>
       </c>
       <c r="K3">
-        <v>12.2</v>
+        <v>13.8</v>
       </c>
       <c r="L3">
-        <v>0.1879815100154083</v>
+        <v>0.1880108991825613</v>
       </c>
       <c r="M3">
-        <v>6.69</v>
+        <v>11.4</v>
       </c>
       <c r="N3">
-        <v>0.05395161290322581</v>
+        <v>0.1011535048802129</v>
       </c>
       <c r="O3">
-        <v>0.548360655737705</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="P3">
-        <v>6.69</v>
+        <v>11.4</v>
       </c>
       <c r="Q3">
-        <v>0.05395161290322581</v>
+        <v>0.1011535048802129</v>
       </c>
       <c r="R3">
-        <v>0.548360655737705</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,31 +773,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6.28</v>
+        <v>7.46</v>
       </c>
       <c r="V3">
-        <v>0.05064516129032258</v>
+        <v>0.06619343389529725</v>
       </c>
       <c r="W3">
-        <v>0.09902597402597402</v>
+        <v>0.1073094867807154</v>
       </c>
       <c r="X3">
-        <v>0.09969249096765777</v>
+        <v>0.112048664881477</v>
       </c>
       <c r="Y3">
-        <v>-0.0006665169416837508</v>
+        <v>-0.004739178100761618</v>
       </c>
       <c r="Z3">
-        <v>0.5383211678832117</v>
+        <v>0.6000654022236757</v>
       </c>
       <c r="AA3">
-        <v>0.08868846946909947</v>
+        <v>0.1067387788190787</v>
       </c>
       <c r="AB3">
-        <v>0.09969249096765777</v>
+        <v>0.112048664881477</v>
       </c>
       <c r="AC3">
-        <v>-0.01100402149855829</v>
+        <v>-0.005309886062398364</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-6.28</v>
+        <v>-7.46</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05334692490655794</v>
+        <v>-0.07088559483086278</v>
       </c>
       <c r="AK3">
-        <v>-0.0507187853335487</v>
+        <v>-0.05970866015687529</v>
       </c>
       <c r="AL3">
-        <v>0.075</v>
+        <v>1.09</v>
       </c>
       <c r="AM3">
-        <v>0.075</v>
+        <v>1.09</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>172</v>
+        <v>14.4954128440367</v>
       </c>
       <c r="AP3">
-        <v>-0.490625</v>
+        <v>-0.4691823899371069</v>
       </c>
       <c r="AQ3">
-        <v>172</v>
+        <v>14.4954128440367</v>
       </c>
     </row>
   </sheetData>
